--- a/Вектор развития ru-en 1.0 (56).xlsx
+++ b/Вектор развития ru-en 1.0 (56).xlsx
@@ -4669,21 +4669,12 @@
     <t>Идет создание событий…</t>
   </si>
   <si>
-    <t>Processing event’s creation…</t>
-  </si>
-  <si>
     <t>Идет удаление событий…</t>
   </si>
   <si>
-    <t>Processing event’s deleting…</t>
-  </si>
-  <si>
     <t>Идет обновление событий…</t>
   </si>
   <si>
-    <t>Processing event’s updating…</t>
-  </si>
-  <si>
     <t>Авторизация…</t>
   </si>
   <si>
@@ -4976,6 +4967,15 @@
   </si>
   <si>
     <t>Может ли ребенок ходить и бегать «перекрестным» способом без затруднений?</t>
+  </si>
+  <si>
+    <t>Processing events creation…</t>
+  </si>
+  <si>
+    <t>Processing events deleting…</t>
+  </si>
+  <si>
+    <t>Processing events updating…</t>
   </si>
 </sst>
 </file>
@@ -5507,7 +5507,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>IF(ISBLANK(C3),"","&lt;!-- "&amp;C3&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A3&amp;"""&gt;"&amp;SUBSTITUTE(D3,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -5544,7 +5544,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E4" s="10" t="str">
         <f t="shared" ref="E4:E67" si="0">IF(ISBLANK(C4),"","&lt;!-- "&amp;C4&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A4&amp;"""&gt;"&amp;SUBSTITUTE(D4,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -5555,7 +5555,7 @@
         <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="app_name_splash"&gt;Вектор\nразвития&lt;/string&gt;</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5578,7 +5578,7 @@
         <v>&lt;string name="drawer_item_calendar"&gt;Календарь&lt;/string&gt;</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5601,7 +5601,7 @@
         <v>&lt;string name="drawer_item_development_diary"&gt;Дневник развития&lt;/string&gt;</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5888,14 +5888,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5908,14 +5908,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E57" s="10" t="str">
         <f t="shared" si="0"/>
@@ -7705,7 +7705,7 @@
         <v>261</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E111" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7749,7 +7749,7 @@
         <v>267</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="E113" s="10" t="str">
         <f t="shared" si="2"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E126" s="10" t="str">
         <f t="shared" si="2"/>
@@ -8795,11 +8795,11 @@
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10" t="s">
-        <v>1549</v>
+        <v>1649</v>
       </c>
       <c r="E165" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;string name="events_generating"&gt;Processing event’s creation…&lt;/string&gt;</v>
+        <v>&lt;string name="events_generating"&gt;Processing events creation…&lt;/string&gt;</v>
       </c>
       <c r="F165" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8811,15 +8811,15 @@
         <v>410</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10" t="s">
-        <v>1551</v>
+        <v>1650</v>
       </c>
       <c r="E166" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;string name="events_deleting"&gt;Processing event’s deleting…&lt;/string&gt;</v>
+        <v>&lt;string name="events_deleting"&gt;Processing events deleting…&lt;/string&gt;</v>
       </c>
       <c r="F166" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8831,15 +8831,15 @@
         <v>411</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="s">
-        <v>1553</v>
+        <v>1651</v>
       </c>
       <c r="E167" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;string name="events_updating"&gt;Processing event’s updating…&lt;/string&gt;</v>
+        <v>&lt;string name="events_updating"&gt;Processing events updating…&lt;/string&gt;</v>
       </c>
       <c r="F167" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E174" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E187" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9737,11 +9737,11 @@
         <v>532</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E212" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10206,7 +10206,7 @@
         <v>600</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>601</v>
@@ -10705,13 +10705,13 @@
         <v>669</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="C260" s="10" t="s">
         <v>670</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E260" s="10" t="str">
         <f t="shared" ref="E260:E322" si="8">IF(ISBLANK(C260),"","&lt;!-- "&amp;C260&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A260&amp;"""&gt;"&amp;SUBSTITUTE(D260,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E307" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11855,7 +11855,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E317" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11932,14 +11932,14 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E321" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11952,14 +11952,14 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E322" s="10" t="str">
         <f t="shared" si="8"/>
@@ -12244,10 +12244,10 @@
       <c r="C337" s="10"/>
       <c r="D337" s="10"/>
       <c r="E337" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12514,10 +12514,10 @@
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
       <c r="E351" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F351" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12559,7 +12559,7 @@
         <v>884</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E354" s="10" t="str">
         <f>IF(ISBLANK(C354),"","&lt;!-- "&amp;C354&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A354&amp;"""&gt;"&amp;SUBSTITUTE(D354,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -12581,7 +12581,7 @@
         <v>887</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E355" s="10" t="str">
         <f t="shared" ref="E355:E372" si="14">IF(ISBLANK(C355),"","&lt;!-- "&amp;C355&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A355&amp;"""&gt;"&amp;SUBSTITUTE(D355,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -12603,7 +12603,7 @@
         <v>888</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E356" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12625,7 +12625,7 @@
         <v>890</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E357" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12647,7 +12647,7 @@
         <v>892</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E358" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12666,10 +12666,10 @@
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
       <c r="E359" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F359" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12701,7 +12701,7 @@
         <v>895</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="E361" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12723,7 +12723,7 @@
         <v>897</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E362" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12745,7 +12745,7 @@
         <v>888</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E363" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12767,7 +12767,7 @@
         <v>899</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E364" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12789,7 +12789,7 @@
         <v>900</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E365" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12808,10 +12808,10 @@
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
       <c r="E366" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F366" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12843,7 +12843,7 @@
         <v>903</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E368" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12865,7 +12865,7 @@
         <v>905</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E369" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12887,7 +12887,7 @@
         <v>888</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E370" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12909,7 +12909,7 @@
         <v>907</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E371" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12931,7 +12931,7 @@
         <v>908</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E372" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12950,10 +12950,10 @@
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
       <c r="E373" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F373" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E375" s="10" t="str">
         <f t="shared" ref="E375:E378" si="18">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;SUBSTITUTE(D375,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="E377" s="10" t="str">
         <f t="shared" si="18"/>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E378" s="10" t="str">
         <f t="shared" si="18"/>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="E380" s="10" t="str">
         <f t="shared" ref="E380:E381" si="20">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D380,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -13110,10 +13110,10 @@
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
       <c r="E382" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F382" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13280,10 +13280,10 @@
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
       <c r="E391" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F391" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C393" s="10"/>
       <c r="D393" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="E393" s="10" t="str">
         <f t="shared" ref="E393:E396" si="24">IF(ISBLANK(C393),"","&lt;!-- "&amp;C393&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A393&amp;"""&gt;"&amp;SUBSTITUTE(D393,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="C398" s="10"/>
       <c r="D398" s="10" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E398" s="10" t="str">
         <f t="shared" ref="E398:E404" si="26">IF(ISBLANK(C398),"","&lt;!-- "&amp;C398&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D398,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="C399" s="10"/>
       <c r="D399" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E399" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C400" s="10"/>
       <c r="D400" s="10" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E400" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13457,11 +13457,11 @@
         <v>841</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C401" s="10"/>
       <c r="D401" s="10" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E401" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13517,11 +13517,11 @@
         <v>841</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C404" s="10"/>
       <c r="D404" s="10" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E404" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13540,10 +13540,10 @@
       <c r="C405" s="10"/>
       <c r="D405" s="10"/>
       <c r="E405" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F405" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="C408" s="10"/>
       <c r="D408" s="10" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E408" s="10" t="str">
         <f t="shared" si="28"/>
@@ -13607,11 +13607,11 @@
         <v>841</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C409" s="10"/>
       <c r="D409" s="10" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E409" s="10" t="str">
         <f t="shared" si="28"/>
@@ -13647,7 +13647,7 @@
         <v>841</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C411" s="10"/>
       <c r="D411" s="10" t="s">
@@ -13710,10 +13710,10 @@
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
       <c r="E414" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C418" s="10"/>
       <c r="D418" s="10" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E418" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="C419" s="10"/>
       <c r="D419" s="10" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E419" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13817,11 +13817,11 @@
         <v>841</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C420" s="10"/>
       <c r="D420" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E420" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="C421" s="10"/>
       <c r="D421" s="10" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E421" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13857,7 +13857,7 @@
         <v>841</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C422" s="10"/>
       <c r="D422" s="10" t="s">
@@ -13880,10 +13880,10 @@
       <c r="C423" s="10"/>
       <c r="D423" s="10"/>
       <c r="E423" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F423" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -14017,7 +14017,7 @@
         <v>841</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C431" s="10"/>
       <c r="D431" s="10" t="s">
@@ -14097,7 +14097,7 @@
         <v>841</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C435" s="10"/>
       <c r="D435" s="10" t="s">
@@ -14140,10 +14140,10 @@
       <c r="C437" s="10"/>
       <c r="D437" s="10"/>
       <c r="E437" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F437" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="C441" s="10"/>
       <c r="D441" s="10" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E441" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14310,10 +14310,10 @@
       <c r="C446" s="10"/>
       <c r="D446" s="10"/>
       <c r="E446" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F446" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14377,7 +14377,7 @@
         <v>841</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C450" s="10"/>
       <c r="D450" s="10" t="s">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="C451" s="10"/>
       <c r="D451" s="10" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E451" s="10" t="str">
         <f t="shared" si="38"/>
@@ -14481,10 +14481,10 @@
       <c r="C455" s="10"/>
       <c r="D455" s="10"/>
       <c r="E455" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F455" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14522,11 +14522,11 @@
         <v>1035</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C458" s="10"/>
       <c r="D458" s="10" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E458" s="10" t="str">
         <f t="shared" si="40"/>
@@ -14661,10 +14661,10 @@
       <c r="C465" s="10"/>
       <c r="D465" s="10"/>
       <c r="E465" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="C469" s="10"/>
       <c r="D469" s="10" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E469" s="10" t="str">
         <f t="shared" si="44"/>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="C480" s="10"/>
       <c r="D480" s="10" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="E480" s="10" t="str">
         <f t="shared" si="44"/>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="C482" s="10"/>
       <c r="D482" s="10" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E482" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="C485" s="10"/>
       <c r="D485" s="10" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E485" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15108,11 +15108,11 @@
         <v>841</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C488" s="10"/>
       <c r="D488" s="10" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E488" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15191,10 +15191,10 @@
       <c r="C492" s="10"/>
       <c r="D492" s="10"/>
       <c r="E492" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F492" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15232,11 +15232,11 @@
         <v>1097</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C495" s="10"/>
       <c r="D495" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E495" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15252,11 +15252,11 @@
         <v>1098</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="C496" s="10"/>
       <c r="D496" s="10" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E496" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15272,11 +15272,11 @@
         <v>1099</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C497" s="10"/>
       <c r="D497" s="10" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E497" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15292,13 +15292,13 @@
         <v>1100</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D498" s="10" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E498" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="C503" s="10"/>
       <c r="D503" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="E503" s="10" t="str">
         <f t="shared" ref="E503:E505" si="48">IF(ISBLANK(C503),"","&lt;!-- "&amp;C503&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D503,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="C504" s="10"/>
       <c r="D504" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E504" s="10" t="str">
         <f t="shared" si="48"/>
@@ -15430,11 +15430,11 @@
         <v>841</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C505" s="10"/>
       <c r="D505" s="10" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E505" s="10" t="str">
         <f t="shared" si="48"/>
@@ -15453,10 +15453,10 @@
       <c r="C506" s="10"/>
       <c r="D506" s="10"/>
       <c r="E506" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F506" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="C513" s="10"/>
       <c r="D513" s="10" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E513" s="10" t="str">
         <f t="shared" si="50"/>
@@ -15640,7 +15640,7 @@
         <v>841</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C516" s="10"/>
       <c r="D516" s="10" t="s">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="C522" s="10"/>
       <c r="D522" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E522" s="10" t="str">
         <f t="shared" si="50"/>
@@ -15824,7 +15824,7 @@
       </c>
       <c r="C525" s="10"/>
       <c r="D525" s="10" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E525" s="10" t="str">
         <f t="shared" si="50"/>
@@ -15860,7 +15860,7 @@
         <v>841</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="C527" s="10"/>
       <c r="D527" s="10" t="s">
@@ -15883,10 +15883,10 @@
       <c r="C528" s="10"/>
       <c r="D528" s="10"/>
       <c r="E528" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F528" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15984,7 +15984,7 @@
       </c>
       <c r="C534" s="10"/>
       <c r="D534" s="10" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E534" s="10" t="str">
         <f t="shared" si="52"/>
@@ -16003,10 +16003,10 @@
       <c r="C535" s="10"/>
       <c r="D535" s="10"/>
       <c r="E535" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F535" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="C537" s="10"/>
       <c r="D537" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E537" s="10" t="str">
         <f t="shared" ref="E537:E538" si="54">IF(ISBLANK(C537),"","&lt;!-- "&amp;C537&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D537,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -16054,7 +16054,7 @@
       </c>
       <c r="C538" s="10"/>
       <c r="D538" s="10" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E538" s="10" t="str">
         <f t="shared" si="54"/>
@@ -16073,10 +16073,10 @@
       <c r="C539" s="10"/>
       <c r="D539" s="10"/>
       <c r="E539" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F539" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="C571" s="10"/>
       <c r="D571" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E571" s="10" t="str">
         <f t="shared" si="56"/>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="C599" s="10"/>
       <c r="D599" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="E599" s="10" t="str">
         <f t="shared" si="56"/>
@@ -17363,10 +17363,10 @@
       <c r="C604" s="10"/>
       <c r="D604" s="10"/>
       <c r="E604" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F604" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -17913,10 +17913,10 @@
       <c r="C632" s="10"/>
       <c r="D632" s="10"/>
       <c r="E632" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F632" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -18123,10 +18123,10 @@
       <c r="C643" s="10"/>
       <c r="D643" s="10"/>
       <c r="E643" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F643" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -19053,10 +19053,10 @@
       <c r="C690" s="10"/>
       <c r="D690" s="10"/>
       <c r="E690" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F690" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>
